--- a/src/analysis_examples/circadb/results_lomb/cosinor_10358533_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10358533_hmcn1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24195228660302703, 0.35479973599916304]</t>
+          <t>[0.2417552036733619, 0.3549968189288282]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.576099416591205e-10</v>
+        <v>3.807971715730218e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>3.576099416591205e-10</v>
+        <v>3.807971715730218e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.383684452031541</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5012187173906479, 0.5695483393743821]</t>
+          <t>[0.5012579731403806, 0.5695090836246495]</t>
         </is>
       </c>
       <c r="U2" t="n">
